--- a/Dispatcher/Data/Config.xlsx
+++ b/Dispatcher/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\Dispatcher\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Task third\Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -168,12 +168,6 @@
   </si>
   <si>
     <t>Acme site path</t>
-  </si>
-  <si>
-    <t>UserCredentials</t>
-  </si>
-  <si>
-    <t>EmailCredentials</t>
   </si>
   <si>
     <t>GmailServer</t>
@@ -557,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -639,22 +633,8 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2818,7 +2798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2882,10 +2862,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -2893,10 +2873,10 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>

--- a/Dispatcher/Data/Config.xlsx
+++ b/Dispatcher/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -174,13 +174,19 @@
   </si>
   <si>
     <t>GmailPort</t>
+  </si>
+  <si>
+    <t>UserCredentials</t>
+  </si>
+  <si>
+    <t>EmailCredentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -204,6 +210,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -235,6 +248,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -552,7 +566,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -633,8 +647,22 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
